--- a/iS3_DataManager/iS3_DataManager/Standard/Geology.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Geology.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EAB15-C990-4A27-ABA7-527B63E24ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036861F-E0A1-4351-A1A9-294921728CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{526C1D35-E9D4-4E1B-BD32-26EEEBE69F25}"/>
   </bookViews>
@@ -16503,8 +16503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1451" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1483" sqref="F1483"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23083,7 +23083,7 @@
         <v>1981</v>
       </c>
       <c r="H259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="s">
         <v>38</v>
@@ -23106,7 +23106,7 @@
         <v>1982</v>
       </c>
       <c r="H260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>1911</v>

--- a/iS3_DataManager/iS3_DataManager/Standard/Geology.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Geology.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="113_{213405D7-7C13-41DE-B2CC-1FEA9B43D266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C812852-065C-49A5-A608-8F61FD8FD6BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{526C1D35-E9D4-4E1B-BD32-26EEEBE69F25}"/>
   </bookViews>
@@ -16390,8 +16390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
